--- a/Team_Gantt_Chart.xlsx
+++ b/Team_Gantt_Chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Brandon Foss\Documents\GitHub\6_Angry_Devs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F5E888-859D-426F-95E0-8A4D5BF29952}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F54B1E-C7C6-4164-AD8F-BE6BE025DCE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12030" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management Summary" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="77">
   <si>
     <t>testing</t>
   </si>
@@ -149,9 +149,6 @@
     <t>placeholder</t>
   </si>
   <si>
-    <t>programming - AI</t>
-  </si>
-  <si>
     <t xml:space="preserve">Brandon </t>
   </si>
   <si>
@@ -173,18 +170,9 @@
     <t>gantt chart creation</t>
   </si>
   <si>
-    <t>Writing RFP</t>
-  </si>
-  <si>
     <t>Merge Gantt Charts</t>
   </si>
   <si>
-    <t>Sound Implementation</t>
-  </si>
-  <si>
-    <t>level design</t>
-  </si>
-  <si>
     <t>programming ship controls</t>
   </si>
   <si>
@@ -206,9 +194,6 @@
     <t>pickup items</t>
   </si>
   <si>
-    <t>mini map</t>
-  </si>
-  <si>
     <t>User Customizable Input</t>
   </si>
   <si>
@@ -246,6 +231,39 @@
   </si>
   <si>
     <t>SA Presentation Planning / RFP Preparation</t>
+  </si>
+  <si>
+    <t>background music</t>
+  </si>
+  <si>
+    <t>UI sounds</t>
+  </si>
+  <si>
+    <t>entity effects</t>
+  </si>
+  <si>
+    <t>terrain effects</t>
+  </si>
+  <si>
+    <t>demo/AI</t>
+  </si>
+  <si>
+    <t>Writing RFP - 2.0</t>
+  </si>
+  <si>
+    <t>Writing RFP - 2.0, 3.0, 7.0</t>
+  </si>
+  <si>
+    <t>Writing RFP - 2.0, 4.0</t>
+  </si>
+  <si>
+    <t>Writing RFP - TBD</t>
+  </si>
+  <si>
+    <t>Writing RFP - 5.0, 6.0</t>
+  </si>
+  <si>
+    <t>Writing RFP - 1.0, 8.0, 9.0, 6.0</t>
   </si>
 </sst>
 </file>
@@ -707,7 +725,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -822,6 +840,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -831,10 +853,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1151,8 +1170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Q10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1176,27 +1195,27 @@
   <sheetData>
     <row r="1" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C2" s="100" t="s">
+      <c r="C2" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="101"/>
-      <c r="E2" s="102"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="106"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="100" t="s">
+      <c r="G2" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="101"/>
-      <c r="I2" s="102"/>
-      <c r="K2" s="100" t="s">
+      <c r="H2" s="105"/>
+      <c r="I2" s="106"/>
+      <c r="K2" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="101"/>
-      <c r="M2" s="102"/>
-      <c r="O2" s="100" t="s">
+      <c r="L2" s="105"/>
+      <c r="M2" s="106"/>
+      <c r="O2" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="102"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="106"/>
     </row>
     <row r="3" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="7" t="s">
@@ -1243,7 +1262,7 @@
       </c>
       <c r="C4" s="20">
         <f>(G4+K4 +O4)</f>
-        <v>6500</v>
+        <v>6700</v>
       </c>
       <c r="D4" s="21">
         <f t="shared" ref="D4:D7" si="0">(H4+L4 +P4)</f>
@@ -1251,12 +1270,12 @@
       </c>
       <c r="E4" s="22">
         <f>(C4-D4)</f>
-        <v>5550</v>
+        <v>5750</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="14">
         <f>(Gantt!$B10)*100</f>
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="H4" s="15">
         <f>(Gantt!$C10)*100</f>
@@ -1264,7 +1283,7 @@
       </c>
       <c r="I4" s="16">
         <f>(G4-H4)</f>
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="K4" s="20">
         <v>2500</v>
@@ -1349,7 +1368,7 @@
       </c>
       <c r="C6" s="14">
         <f t="shared" si="1"/>
-        <v>6500</v>
+        <v>6800</v>
       </c>
       <c r="D6" s="15">
         <f t="shared" si="0"/>
@@ -1357,12 +1376,12 @@
       </c>
       <c r="E6" s="16">
         <f t="shared" si="2"/>
-        <v>5950</v>
+        <v>6250</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="14">
         <f>(Gantt!$B28)*100</f>
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="H6" s="15">
         <f>(Gantt!$C28)*100</f>
@@ -1370,7 +1389,7 @@
       </c>
       <c r="I6" s="16">
         <f t="shared" si="3"/>
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="K6" s="47">
         <v>2500</v>
@@ -1563,7 +1582,7 @@
       </c>
       <c r="C10" s="24">
         <f>SUM(C4:C9)</f>
-        <v>41500</v>
+        <v>42000</v>
       </c>
       <c r="D10" s="25">
         <f>SUM(D4:D9)</f>
@@ -1571,11 +1590,11 @@
       </c>
       <c r="E10" s="26">
         <f>SUM(E4:E9)</f>
-        <v>38150</v>
+        <v>38650</v>
       </c>
       <c r="G10" s="17">
         <f>SUM(G4:G9)</f>
-        <v>18500</v>
+        <v>19000</v>
       </c>
       <c r="H10" s="18">
         <f>SUM(H4:H9)</f>
@@ -1583,7 +1602,7 @@
       </c>
       <c r="I10" s="19">
         <f>SUM(I4:I9)</f>
-        <v>18200</v>
+        <v>18700</v>
       </c>
       <c r="K10" s="17">
         <f>SUM(K4:K9)</f>
@@ -1626,8 +1645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AF66"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1640,13 +1659,13 @@
   <sheetData>
     <row r="1" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" t="s">
@@ -1668,7 +1687,7 @@
       <c r="B2" s="88"/>
       <c r="C2" s="88"/>
       <c r="D2" s="89" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E2" s="90">
         <v>3</v>
@@ -1754,7 +1773,7 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="92" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="69">
         <v>3</v>
@@ -1835,7 +1854,7 @@
         <v>35</v>
       </c>
       <c r="B5" s="69">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" s="69">
         <v>0</v>
@@ -1847,7 +1866,7 @@
       <c r="H5" s="94"/>
       <c r="I5" s="94"/>
       <c r="J5" s="94"/>
-      <c r="K5" s="51"/>
+      <c r="K5" s="94"/>
       <c r="L5" s="51"/>
       <c r="M5" s="51"/>
       <c r="N5" s="51"/>
@@ -1871,7 +1890,7 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="92" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B6" s="69">
         <v>4</v>
@@ -1886,8 +1905,8 @@
       <c r="H6" s="51"/>
       <c r="I6" s="51"/>
       <c r="J6" s="51"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="51"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="94"/>
       <c r="M6" s="51"/>
       <c r="N6" s="51"/>
       <c r="O6" s="51"/>
@@ -2004,8 +2023,8 @@
       <c r="I9" s="51"/>
       <c r="J9" s="51"/>
       <c r="K9" s="59"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="51"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="94"/>
       <c r="N9" s="51"/>
       <c r="O9" s="51"/>
       <c r="P9" s="51"/>
@@ -2031,7 +2050,7 @@
       </c>
       <c r="B10" s="95">
         <f>SUM(B3:B9)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10" s="95">
         <f>SUM(C3:C9)</f>
@@ -2103,7 +2122,7 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="92" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" s="69">
         <v>3</v>
@@ -2142,7 +2161,7 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="92" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B13" s="69">
         <v>5</v>
@@ -2181,7 +2200,7 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="92" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B14" s="69">
         <v>5</v>
@@ -2220,7 +2239,7 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="92" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B15" s="69">
         <v>30</v>
@@ -2259,7 +2278,7 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="92" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B16" s="69">
         <v>20</v>
@@ -2492,10 +2511,10 @@
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="92" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="B22" s="69">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C22" s="69">
         <v>0</v>
@@ -2503,7 +2522,7 @@
       <c r="D22" s="51"/>
       <c r="E22" s="94"/>
       <c r="F22" s="94"/>
-      <c r="G22" s="94"/>
+      <c r="G22" s="59"/>
       <c r="H22" s="51"/>
       <c r="I22" s="51"/>
       <c r="J22" s="51"/>
@@ -2531,10 +2550,10 @@
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="92" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="B23" s="69">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C23" s="69">
         <v>0</v>
@@ -2542,9 +2561,9 @@
       <c r="D23" s="51"/>
       <c r="E23" s="51"/>
       <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="94"/>
-      <c r="I23" s="94"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
       <c r="J23" s="51"/>
       <c r="K23" s="51"/>
       <c r="L23" s="51"/>
@@ -2570,7 +2589,7 @@
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="92" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B24" s="69">
         <v>3</v>
@@ -2582,9 +2601,9 @@
       <c r="E24" s="51"/>
       <c r="F24" s="51"/>
       <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
+      <c r="H24" s="94"/>
       <c r="I24" s="51"/>
-      <c r="J24" s="94"/>
+      <c r="J24" s="51"/>
       <c r="K24" s="51"/>
       <c r="L24" s="51"/>
       <c r="M24" s="51"/>
@@ -2609,10 +2628,10 @@
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="92" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="B25" s="69">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C25" s="69">
         <v>0</v>
@@ -2622,7 +2641,7 @@
       <c r="F25" s="51"/>
       <c r="G25" s="51"/>
       <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
+      <c r="I25" s="94"/>
       <c r="J25" s="51"/>
       <c r="K25" s="51"/>
       <c r="L25" s="51"/>
@@ -2648,10 +2667,10 @@
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="92" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="B26" s="69">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C26" s="69">
         <v>0</v>
@@ -2662,11 +2681,11 @@
       <c r="G26" s="51"/>
       <c r="H26" s="51"/>
       <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="51"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="94"/>
+      <c r="L26" s="94"/>
+      <c r="M26" s="94"/>
+      <c r="N26" s="94"/>
       <c r="O26" s="51"/>
       <c r="P26" s="51"/>
       <c r="Q26" s="51"/>
@@ -2690,7 +2709,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="69">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27" s="69">
         <v>0</v>
@@ -2702,11 +2721,11 @@
       <c r="H27" s="51"/>
       <c r="I27" s="51"/>
       <c r="J27" s="51"/>
-      <c r="K27" s="94"/>
+      <c r="K27" s="59"/>
       <c r="L27" s="51"/>
       <c r="M27" s="51"/>
       <c r="N27" s="51"/>
-      <c r="O27" s="51"/>
+      <c r="O27" s="94"/>
       <c r="P27" s="51"/>
       <c r="Q27" s="51"/>
       <c r="R27" s="51"/>
@@ -2730,7 +2749,7 @@
       </c>
       <c r="B28" s="95">
         <f>SUM(B22:B27)</f>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C28" s="95">
         <f>SUM(C22:C27)</f>
@@ -2841,7 +2860,7 @@
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" s="92" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B31" s="69">
         <v>4</v>
@@ -2880,7 +2899,7 @@
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" s="92" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B32" s="69">
         <v>2</v>
@@ -2919,7 +2938,7 @@
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" s="92" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B33" s="69">
         <v>4</v>
@@ -3112,7 +3131,7 @@
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" s="92" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B38" s="69">
         <v>1</v>
@@ -3151,7 +3170,7 @@
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" s="92" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B39" s="69">
         <v>10</v>
@@ -3190,7 +3209,7 @@
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" s="92" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B40" s="69">
         <v>1</v>
@@ -3422,7 +3441,7 @@
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" s="92" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" s="69">
         <v>2</v>
@@ -3701,7 +3720,7 @@
       </c>
       <c r="B53" s="86">
         <f>SUM(B10,B20,B52,B28,B36,B44)</f>
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C53" s="86">
         <f>SUM(C26,C36,C44,C52,C10,C20)</f>
@@ -3740,7 +3759,7 @@
       </c>
       <c r="B54" s="63">
         <f>B53*100</f>
-        <v>18500</v>
+        <v>19000</v>
       </c>
       <c r="C54" s="63">
         <f>C53*100</f>
@@ -4118,7 +4137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -4133,34 +4152,34 @@
         <v>9</v>
       </c>
       <c r="C1" s="80" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="80" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="80" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="80" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1" s="80" t="s">
-        <v>41</v>
-      </c>
       <c r="G1" s="80" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H1" s="80" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I1" s="80" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J1" s="80" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K1" s="80" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L1" s="81" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4172,31 +4191,31 @@
         <v>13</v>
       </c>
       <c r="D2" s="67" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E2" s="67" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F2" s="67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" s="67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H2" s="67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I2" s="67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J2" s="67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K2" s="67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L2" s="82" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4383,7 +4402,7 @@
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="62" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B10" s="64">
         <f>SUM(B4:B9)</f>
@@ -4449,7 +4468,7 @@
   <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U23" sqref="U23"/>
+      <selection activeCell="X19" sqref="X19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4514,13 +4533,13 @@
       <c r="R1" s="88">
         <v>14</v>
       </c>
-      <c r="S1" s="103">
+      <c r="S1" s="100">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="75" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="30" t="s">
         <v>22</v>
@@ -4577,7 +4596,7 @@
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="32"/>
       <c r="B4" s="31" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="C4" s="51">
         <v>4</v>
@@ -4590,7 +4609,7 @@
       <c r="G4" s="93"/>
       <c r="H4" s="93"/>
       <c r="I4" s="93"/>
-      <c r="J4" s="104"/>
+      <c r="J4" s="101"/>
       <c r="K4" s="51"/>
       <c r="L4" s="51"/>
       <c r="M4" s="51"/>
@@ -4604,7 +4623,7 @@
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="32"/>
       <c r="B5" s="53" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5" s="51">
         <v>2</v>
@@ -4653,7 +4672,7 @@
       <c r="P6" s="51"/>
       <c r="Q6" s="51"/>
       <c r="R6" s="93"/>
-      <c r="S6" s="105"/>
+      <c r="S6" s="102"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="35"/>
@@ -4743,7 +4762,7 @@
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="32"/>
       <c r="B10" s="31" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="C10" s="51">
         <v>4</v>
@@ -4789,8 +4808,8 @@
       <c r="M11" s="51"/>
       <c r="N11" s="51"/>
       <c r="O11" s="51"/>
-      <c r="P11" s="106"/>
-      <c r="Q11" s="106"/>
+      <c r="P11" s="103"/>
+      <c r="Q11" s="103"/>
       <c r="R11" s="51"/>
       <c r="S11" s="52"/>
     </row>
@@ -4882,7 +4901,7 @@
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="31" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="C15" s="51">
         <v>4</v>
@@ -4928,8 +4947,8 @@
       <c r="M16" s="51"/>
       <c r="N16" s="51"/>
       <c r="O16" s="51"/>
-      <c r="P16" s="106"/>
-      <c r="Q16" s="106"/>
+      <c r="P16" s="103"/>
+      <c r="Q16" s="103"/>
       <c r="R16" s="51"/>
       <c r="S16" s="52"/>
     </row>
@@ -5021,7 +5040,7 @@
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="32"/>
       <c r="B20" s="31" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="C20" s="51">
         <v>4</v>
@@ -5034,7 +5053,7 @@
       <c r="G20" s="93"/>
       <c r="H20" s="93"/>
       <c r="I20" s="93"/>
-      <c r="J20" s="104"/>
+      <c r="J20" s="101"/>
       <c r="K20" s="51"/>
       <c r="L20" s="51"/>
       <c r="M20" s="51"/>
@@ -5067,8 +5086,8 @@
       <c r="M21" s="51"/>
       <c r="N21" s="51"/>
       <c r="O21" s="51"/>
-      <c r="P21" s="106"/>
-      <c r="Q21" s="106"/>
+      <c r="P21" s="103"/>
+      <c r="Q21" s="103"/>
       <c r="R21" s="51"/>
       <c r="S21" s="52"/>
     </row>
@@ -5160,7 +5179,7 @@
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="31" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="C25" s="51">
         <v>4</v>
@@ -5206,8 +5225,8 @@
       <c r="M26" s="51"/>
       <c r="N26" s="51"/>
       <c r="O26" s="51"/>
-      <c r="P26" s="106"/>
-      <c r="Q26" s="106"/>
+      <c r="P26" s="103"/>
+      <c r="Q26" s="103"/>
       <c r="R26" s="51"/>
       <c r="S26" s="52"/>
     </row>
@@ -5299,7 +5318,7 @@
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="32"/>
       <c r="B30" s="31" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="C30" s="51">
         <v>4</v>
@@ -5345,8 +5364,8 @@
       <c r="M31" s="51"/>
       <c r="N31" s="51"/>
       <c r="O31" s="51"/>
-      <c r="P31" s="106"/>
-      <c r="Q31" s="106"/>
+      <c r="P31" s="103"/>
+      <c r="Q31" s="103"/>
       <c r="R31" s="51"/>
       <c r="S31" s="52"/>
     </row>

--- a/Team_Gantt_Chart.xlsx
+++ b/Team_Gantt_Chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Brandon Foss\Documents\GitHub\6_Angry_Devs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joshua\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F54B1E-C7C6-4164-AD8F-BE6BE025DCE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4093D3-E05A-4CC3-B4E0-F44D28723229}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28035" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management Summary" sheetId="3" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -224,9 +225,6 @@
     <t>object / asset animations</t>
   </si>
   <si>
-    <t>model Animation</t>
-  </si>
-  <si>
     <t>Feb. 5</t>
   </si>
   <si>
@@ -264,6 +262,9 @@
   </si>
   <si>
     <t>Writing RFP - 1.0, 8.0, 9.0, 6.0</t>
+  </si>
+  <si>
+    <t>player character animation</t>
   </si>
 </sst>
 </file>
@@ -844,6 +845,7 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -853,7 +855,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1170,7 +1171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
@@ -1195,27 +1196,27 @@
   <sheetData>
     <row r="1" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C2" s="104" t="s">
+      <c r="C2" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="105"/>
-      <c r="E2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="107"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="104" t="s">
+      <c r="G2" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="105"/>
-      <c r="I2" s="106"/>
-      <c r="K2" s="104" t="s">
+      <c r="H2" s="106"/>
+      <c r="I2" s="107"/>
+      <c r="K2" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="105"/>
-      <c r="M2" s="106"/>
-      <c r="O2" s="104" t="s">
+      <c r="L2" s="106"/>
+      <c r="M2" s="107"/>
+      <c r="O2" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="106"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="107"/>
     </row>
     <row r="3" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="7" t="s">
@@ -1645,8 +1646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AF66"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="R28" sqref="R28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2161,7 +2162,7 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="92" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B13" s="69">
         <v>5</v>
@@ -2200,7 +2201,7 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="92" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="B14" s="69">
         <v>5</v>
@@ -2511,7 +2512,7 @@
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="92" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B22" s="69">
         <v>5</v>
@@ -2550,7 +2551,7 @@
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="92" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B23" s="69">
         <v>2</v>
@@ -2561,7 +2562,7 @@
       <c r="D23" s="51"/>
       <c r="E23" s="51"/>
       <c r="F23" s="51"/>
-      <c r="G23" s="107"/>
+      <c r="G23" s="104"/>
       <c r="H23" s="51"/>
       <c r="I23" s="51"/>
       <c r="J23" s="51"/>
@@ -2589,7 +2590,7 @@
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="92" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B24" s="69">
         <v>3</v>
@@ -2628,7 +2629,7 @@
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="92" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B25" s="69">
         <v>2</v>
@@ -2667,7 +2668,7 @@
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="92" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B26" s="69">
         <v>15</v>
@@ -4158,7 +4159,7 @@
         <v>49</v>
       </c>
       <c r="E1" s="80" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F1" s="80" t="s">
         <v>40</v>
@@ -4194,7 +4195,7 @@
         <v>50</v>
       </c>
       <c r="E2" s="67" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F2" s="67" t="s">
         <v>41</v>
@@ -4596,7 +4597,7 @@
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="32"/>
       <c r="B4" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" s="51">
         <v>4</v>
@@ -4762,7 +4763,7 @@
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="32"/>
       <c r="B10" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C10" s="51">
         <v>4</v>
@@ -4901,7 +4902,7 @@
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C15" s="51">
         <v>4</v>
@@ -5040,7 +5041,7 @@
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="32"/>
       <c r="B20" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C20" s="51">
         <v>4</v>
@@ -5179,7 +5180,7 @@
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C25" s="51">
         <v>4</v>
@@ -5318,7 +5319,7 @@
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="32"/>
       <c r="B30" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C30" s="51">
         <v>4</v>

--- a/Team_Gantt_Chart.xlsx
+++ b/Team_Gantt_Chart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joshua\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sherl\Documents\GitHub\6_Angry_Devs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4093D3-E05A-4CC3-B4E0-F44D28723229}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FE63E4-B161-413C-9495-EB6FC2BC61D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28035" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="77">
   <si>
     <t>testing</t>
   </si>
@@ -726,7 +725,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -855,6 +854,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1423,7 +1423,7 @@
       </c>
       <c r="C7" s="45">
         <f t="shared" si="1"/>
-        <v>6000</v>
+        <v>7400</v>
       </c>
       <c r="D7" s="45">
         <f t="shared" si="0"/>
@@ -1431,12 +1431,12 @@
       </c>
       <c r="E7" s="46">
         <f t="shared" si="2"/>
-        <v>5600</v>
+        <v>7000</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="14">
         <f>(Gantt!$B36)*100</f>
-        <v>2200</v>
+        <v>3600</v>
       </c>
       <c r="H7" s="15">
         <f>(Gantt!$C36)*100</f>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="I7" s="16">
         <f t="shared" si="3"/>
-        <v>2200</v>
+        <v>3600</v>
       </c>
       <c r="K7" s="47">
         <v>2500</v>
@@ -1583,7 +1583,7 @@
       </c>
       <c r="C10" s="24">
         <f>SUM(C4:C9)</f>
-        <v>42000</v>
+        <v>43400</v>
       </c>
       <c r="D10" s="25">
         <f>SUM(D4:D9)</f>
@@ -1591,11 +1591,11 @@
       </c>
       <c r="E10" s="26">
         <f>SUM(E4:E9)</f>
-        <v>38650</v>
+        <v>40050</v>
       </c>
       <c r="G10" s="17">
         <f>SUM(G4:G9)</f>
-        <v>19000</v>
+        <v>20400</v>
       </c>
       <c r="H10" s="18">
         <f>SUM(H4:H9)</f>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="I10" s="19">
         <f>SUM(I4:I9)</f>
-        <v>18700</v>
+        <v>20100</v>
       </c>
       <c r="K10" s="17">
         <f>SUM(K4:K9)</f>
@@ -1647,7 +1647,7 @@
   <dimension ref="A1:AF66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="G31" activeCellId="1" sqref="B34 G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2825,7 +2825,7 @@
         <v>34</v>
       </c>
       <c r="B30" s="69">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C30" s="69">
         <v>0</v>
@@ -2833,7 +2833,7 @@
       <c r="D30" s="51"/>
       <c r="E30" s="94"/>
       <c r="F30" s="94"/>
-      <c r="G30" s="51"/>
+      <c r="G30" s="94"/>
       <c r="H30" s="51"/>
       <c r="I30" s="51"/>
       <c r="J30" s="51"/>
@@ -2864,7 +2864,7 @@
         <v>46</v>
       </c>
       <c r="B31" s="69">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C31" s="69">
         <v>0</v>
@@ -2872,9 +2872,9 @@
       <c r="D31" s="51"/>
       <c r="E31" s="51"/>
       <c r="F31" s="51"/>
-      <c r="G31" s="94"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
+      <c r="G31" s="108"/>
+      <c r="H31" s="94"/>
+      <c r="I31" s="94"/>
       <c r="J31" s="51"/>
       <c r="K31" s="51"/>
       <c r="L31" s="51"/>
@@ -2903,7 +2903,7 @@
         <v>53</v>
       </c>
       <c r="B32" s="69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C32" s="69">
         <v>0</v>
@@ -2912,9 +2912,8 @@
       <c r="E32" s="51"/>
       <c r="F32" s="51"/>
       <c r="G32" s="51"/>
-      <c r="H32" s="94"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="51"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="94"/>
       <c r="K32" s="51"/>
       <c r="L32" s="51"/>
       <c r="M32" s="51"/>
@@ -2942,7 +2941,7 @@
         <v>54</v>
       </c>
       <c r="B33" s="69">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C33" s="69">
         <v>0</v>
@@ -2954,8 +2953,8 @@
       <c r="H33" s="51"/>
       <c r="I33" s="51"/>
       <c r="J33" s="51"/>
-      <c r="K33" s="51"/>
-      <c r="L33" s="51"/>
+      <c r="K33" s="94"/>
+      <c r="L33" s="94"/>
       <c r="M33" s="51"/>
       <c r="N33" s="51"/>
       <c r="O33" s="51"/>
@@ -2978,10 +2977,10 @@
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" s="92" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="B34" s="69">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C34" s="69">
         <v>0</v>
@@ -2995,10 +2994,10 @@
       <c r="J34" s="51"/>
       <c r="K34" s="51"/>
       <c r="L34" s="51"/>
-      <c r="M34" s="51"/>
-      <c r="N34" s="51"/>
-      <c r="O34" s="51"/>
-      <c r="P34" s="51"/>
+      <c r="M34" s="94"/>
+      <c r="N34" s="94"/>
+      <c r="O34" s="94"/>
+      <c r="P34" s="94"/>
       <c r="Q34" s="51"/>
       <c r="R34" s="51"/>
       <c r="S34" s="51"/>
@@ -3016,12 +3015,8 @@
       <c r="AE34" s="52"/>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A35" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="69">
-        <v>6</v>
-      </c>
+      <c r="A35" s="92"/>
+      <c r="B35" s="69"/>
       <c r="C35" s="69">
         <v>0</v>
       </c>
@@ -3030,8 +3025,8 @@
       <c r="F35" s="51"/>
       <c r="G35" s="51"/>
       <c r="H35" s="51"/>
-      <c r="I35" s="94"/>
-      <c r="J35" s="94"/>
+      <c r="I35" s="59"/>
+      <c r="J35" s="59"/>
       <c r="K35" s="51"/>
       <c r="L35" s="51"/>
       <c r="M35" s="51"/>
@@ -3060,7 +3055,7 @@
       </c>
       <c r="B36" s="95">
         <f>SUM(B30:B35)</f>
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C36" s="95">
         <f>SUM(C30:C35)</f>
@@ -3721,7 +3716,7 @@
       </c>
       <c r="B53" s="86">
         <f>SUM(B10,B20,B52,B28,B36,B44)</f>
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="C53" s="86">
         <f>SUM(C26,C36,C44,C52,C10,C20)</f>
@@ -3760,7 +3755,7 @@
       </c>
       <c r="B54" s="63">
         <f>B53*100</f>
-        <v>19000</v>
+        <v>20400</v>
       </c>
       <c r="C54" s="63">
         <f>C53*100</f>
@@ -4131,6 +4126,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Team_Gantt_Chart.xlsx
+++ b/Team_Gantt_Chart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sherl\Documents\GitHub\6_Angry_Devs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joshua\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FE63E4-B161-413C-9495-EB6FC2BC61D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4093D3-E05A-4CC3-B4E0-F44D28723229}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28035" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,6 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="77">
   <si>
     <t>testing</t>
   </si>
@@ -725,7 +726,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -854,7 +855,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1423,7 +1423,7 @@
       </c>
       <c r="C7" s="45">
         <f t="shared" si="1"/>
-        <v>7400</v>
+        <v>6000</v>
       </c>
       <c r="D7" s="45">
         <f t="shared" si="0"/>
@@ -1431,12 +1431,12 @@
       </c>
       <c r="E7" s="46">
         <f t="shared" si="2"/>
-        <v>7000</v>
+        <v>5600</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="14">
         <f>(Gantt!$B36)*100</f>
-        <v>3600</v>
+        <v>2200</v>
       </c>
       <c r="H7" s="15">
         <f>(Gantt!$C36)*100</f>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="I7" s="16">
         <f t="shared" si="3"/>
-        <v>3600</v>
+        <v>2200</v>
       </c>
       <c r="K7" s="47">
         <v>2500</v>
@@ -1583,7 +1583,7 @@
       </c>
       <c r="C10" s="24">
         <f>SUM(C4:C9)</f>
-        <v>43400</v>
+        <v>42000</v>
       </c>
       <c r="D10" s="25">
         <f>SUM(D4:D9)</f>
@@ -1591,11 +1591,11 @@
       </c>
       <c r="E10" s="26">
         <f>SUM(E4:E9)</f>
-        <v>40050</v>
+        <v>38650</v>
       </c>
       <c r="G10" s="17">
         <f>SUM(G4:G9)</f>
-        <v>20400</v>
+        <v>19000</v>
       </c>
       <c r="H10" s="18">
         <f>SUM(H4:H9)</f>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="I10" s="19">
         <f>SUM(I4:I9)</f>
-        <v>20100</v>
+        <v>18700</v>
       </c>
       <c r="K10" s="17">
         <f>SUM(K4:K9)</f>
@@ -1647,7 +1647,7 @@
   <dimension ref="A1:AF66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" activeCellId="1" sqref="B34 G31"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2825,7 +2825,7 @@
         <v>34</v>
       </c>
       <c r="B30" s="69">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C30" s="69">
         <v>0</v>
@@ -2833,7 +2833,7 @@
       <c r="D30" s="51"/>
       <c r="E30" s="94"/>
       <c r="F30" s="94"/>
-      <c r="G30" s="94"/>
+      <c r="G30" s="51"/>
       <c r="H30" s="51"/>
       <c r="I30" s="51"/>
       <c r="J30" s="51"/>
@@ -2864,7 +2864,7 @@
         <v>46</v>
       </c>
       <c r="B31" s="69">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C31" s="69">
         <v>0</v>
@@ -2872,9 +2872,9 @@
       <c r="D31" s="51"/>
       <c r="E31" s="51"/>
       <c r="F31" s="51"/>
-      <c r="G31" s="108"/>
-      <c r="H31" s="94"/>
-      <c r="I31" s="94"/>
+      <c r="G31" s="94"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
       <c r="J31" s="51"/>
       <c r="K31" s="51"/>
       <c r="L31" s="51"/>
@@ -2903,7 +2903,7 @@
         <v>53</v>
       </c>
       <c r="B32" s="69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C32" s="69">
         <v>0</v>
@@ -2912,8 +2912,9 @@
       <c r="E32" s="51"/>
       <c r="F32" s="51"/>
       <c r="G32" s="51"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="94"/>
+      <c r="H32" s="94"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="51"/>
       <c r="K32" s="51"/>
       <c r="L32" s="51"/>
       <c r="M32" s="51"/>
@@ -2941,7 +2942,7 @@
         <v>54</v>
       </c>
       <c r="B33" s="69">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C33" s="69">
         <v>0</v>
@@ -2953,8 +2954,8 @@
       <c r="H33" s="51"/>
       <c r="I33" s="51"/>
       <c r="J33" s="51"/>
-      <c r="K33" s="94"/>
-      <c r="L33" s="94"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="51"/>
       <c r="M33" s="51"/>
       <c r="N33" s="51"/>
       <c r="O33" s="51"/>
@@ -2977,10 +2978,10 @@
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" s="92" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B34" s="69">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C34" s="69">
         <v>0</v>
@@ -2994,10 +2995,10 @@
       <c r="J34" s="51"/>
       <c r="K34" s="51"/>
       <c r="L34" s="51"/>
-      <c r="M34" s="94"/>
-      <c r="N34" s="94"/>
-      <c r="O34" s="94"/>
-      <c r="P34" s="94"/>
+      <c r="M34" s="51"/>
+      <c r="N34" s="51"/>
+      <c r="O34" s="51"/>
+      <c r="P34" s="51"/>
       <c r="Q34" s="51"/>
       <c r="R34" s="51"/>
       <c r="S34" s="51"/>
@@ -3015,8 +3016,12 @@
       <c r="AE34" s="52"/>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A35" s="92"/>
-      <c r="B35" s="69"/>
+      <c r="A35" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="69">
+        <v>6</v>
+      </c>
       <c r="C35" s="69">
         <v>0</v>
       </c>
@@ -3025,8 +3030,8 @@
       <c r="F35" s="51"/>
       <c r="G35" s="51"/>
       <c r="H35" s="51"/>
-      <c r="I35" s="59"/>
-      <c r="J35" s="59"/>
+      <c r="I35" s="94"/>
+      <c r="J35" s="94"/>
       <c r="K35" s="51"/>
       <c r="L35" s="51"/>
       <c r="M35" s="51"/>
@@ -3055,7 +3060,7 @@
       </c>
       <c r="B36" s="95">
         <f>SUM(B30:B35)</f>
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C36" s="95">
         <f>SUM(C30:C35)</f>
@@ -3716,7 +3721,7 @@
       </c>
       <c r="B53" s="86">
         <f>SUM(B10,B20,B52,B28,B36,B44)</f>
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="C53" s="86">
         <f>SUM(C26,C36,C44,C52,C10,C20)</f>
@@ -3755,7 +3760,7 @@
       </c>
       <c r="B54" s="63">
         <f>B53*100</f>
-        <v>20400</v>
+        <v>19000</v>
       </c>
       <c r="C54" s="63">
         <f>C53*100</f>
@@ -4126,7 +4131,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Team_Gantt_Chart.xlsx
+++ b/Team_Gantt_Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Brandon Foss\Documents\GitHub\6_Angry_Devs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F54B1E-C7C6-4164-AD8F-BE6BE025DCE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2576E9-DA27-4702-B6D7-6FD14B32116D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="77">
   <si>
     <t>testing</t>
   </si>
@@ -251,19 +251,19 @@
     <t>Writing RFP - 2.0</t>
   </si>
   <si>
-    <t>Writing RFP - 2.0, 3.0, 7.0</t>
-  </si>
-  <si>
-    <t>Writing RFP - 2.0, 4.0</t>
-  </si>
-  <si>
     <t>Writing RFP - TBD</t>
   </si>
   <si>
     <t>Writing RFP - 5.0, 6.0</t>
   </si>
   <si>
-    <t>Writing RFP - 1.0, 8.0, 9.0, 6.0</t>
+    <t>Writing RFP - 1.0, 8.0, 9.0, 10.0</t>
+  </si>
+  <si>
+    <t>Writing RFP - 2.0, 3.0, 5.0, 10.0</t>
+  </si>
+  <si>
+    <t>Writing RFP - 2.0, 4.0, 7.0, 10.0</t>
   </si>
 </sst>
 </file>
@@ -844,6 +844,7 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -853,7 +854,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1171,7 +1171,7 @@
   <dimension ref="B1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1195,27 +1195,27 @@
   <sheetData>
     <row r="1" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C2" s="104" t="s">
+      <c r="C2" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="105"/>
-      <c r="E2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="107"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="104" t="s">
+      <c r="G2" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="105"/>
-      <c r="I2" s="106"/>
-      <c r="K2" s="104" t="s">
+      <c r="H2" s="106"/>
+      <c r="I2" s="107"/>
+      <c r="K2" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="105"/>
-      <c r="M2" s="106"/>
-      <c r="O2" s="104" t="s">
+      <c r="L2" s="106"/>
+      <c r="M2" s="107"/>
+      <c r="O2" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="106"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="107"/>
     </row>
     <row r="3" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="7" t="s">
@@ -1262,15 +1262,15 @@
       </c>
       <c r="C4" s="20">
         <f>(G4+K4 +O4)</f>
-        <v>6700</v>
+        <v>6600</v>
       </c>
       <c r="D4" s="21">
         <f t="shared" ref="D4:D7" si="0">(H4+L4 +P4)</f>
-        <v>950</v>
+        <v>2150</v>
       </c>
       <c r="E4" s="22">
         <f>(C4-D4)</f>
-        <v>5750</v>
+        <v>4450</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="14">
@@ -1298,15 +1298,15 @@
       </c>
       <c r="O4" s="47">
         <f>(SA!C7)*100</f>
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="P4" s="48">
         <f>(SA!D7)*100</f>
-        <v>100</v>
+        <v>1300</v>
       </c>
       <c r="Q4" s="49">
         <f>(O4-P4)</f>
-        <v>1400</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1319,11 +1319,11 @@
       </c>
       <c r="D5" s="15">
         <f t="shared" si="0"/>
-        <v>550</v>
+        <v>1750</v>
       </c>
       <c r="E5" s="16">
         <f t="shared" ref="E5:E7" si="2">(C5-D5)</f>
-        <v>11550</v>
+        <v>10350</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="14">
@@ -1355,11 +1355,11 @@
       </c>
       <c r="P5" s="45">
         <f>(SA!D12)*100</f>
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="Q5" s="46">
         <f t="shared" ref="Q5:Q7" si="5">(O5-P5)</f>
-        <v>1300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1372,11 +1372,11 @@
       </c>
       <c r="D6" s="15">
         <f t="shared" si="0"/>
-        <v>550</v>
+        <v>1650</v>
       </c>
       <c r="E6" s="16">
         <f t="shared" si="2"/>
-        <v>6250</v>
+        <v>5150</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="14">
@@ -1409,11 +1409,11 @@
       </c>
       <c r="P6" s="45">
         <f>(SA!D17)*100</f>
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="Q6" s="46">
         <f t="shared" si="5"/>
-        <v>1300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1426,11 +1426,11 @@
       </c>
       <c r="D7" s="45">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="E7" s="46">
         <f t="shared" si="2"/>
-        <v>5600</v>
+        <v>4500</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="14">
@@ -1463,11 +1463,11 @@
       </c>
       <c r="P7" s="56">
         <f>(SA!D22)*100</f>
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="Q7" s="57">
         <f t="shared" si="5"/>
-        <v>1300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1480,11 +1480,11 @@
       </c>
       <c r="D8" s="45">
         <f t="shared" ref="D8:D9" si="7">(H8+L8 +P8)</f>
-        <v>550</v>
+        <v>1850</v>
       </c>
       <c r="E8" s="46">
         <f t="shared" ref="E8:E9" si="8">(C8-D8)</f>
-        <v>4850</v>
+        <v>3550</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="14">
@@ -1493,11 +1493,11 @@
       </c>
       <c r="H8" s="15">
         <f>(Gantt!$C44)*100</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I8" s="16">
         <f t="shared" ref="I8:I9" si="9">(G8-H8)</f>
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K8" s="47">
         <v>2500</v>
@@ -1517,11 +1517,11 @@
       </c>
       <c r="P8" s="56">
         <f>(SA!D27)*100</f>
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="Q8" s="57">
         <f t="shared" ref="Q8:Q9" si="11">(O8-P8)</f>
-        <v>1300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1534,11 +1534,11 @@
       </c>
       <c r="D9" s="41">
         <f t="shared" si="7"/>
-        <v>350</v>
+        <v>950</v>
       </c>
       <c r="E9" s="27">
         <f t="shared" si="8"/>
-        <v>4650</v>
+        <v>4050</v>
       </c>
       <c r="G9" s="14">
         <f>(Gantt!$B52)*100</f>
@@ -1557,11 +1557,11 @@
       </c>
       <c r="L9" s="15">
         <f>Meetings!B9*100</f>
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="M9" s="16">
         <f t="shared" si="10"/>
-        <v>2150</v>
+        <v>1950</v>
       </c>
       <c r="O9" s="54">
         <f>(SA!C32)*100</f>
@@ -1569,11 +1569,11 @@
       </c>
       <c r="P9" s="55">
         <f>(SA!D32)*100</f>
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Q9" s="50">
         <f t="shared" si="11"/>
-        <v>1300</v>
+        <v>900</v>
       </c>
     </row>
     <row r="10" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1582,15 +1582,15 @@
       </c>
       <c r="C10" s="24">
         <f>SUM(C4:C9)</f>
-        <v>42000</v>
+        <v>41900</v>
       </c>
       <c r="D10" s="25">
         <f>SUM(D4:D9)</f>
-        <v>3350</v>
+        <v>9850</v>
       </c>
       <c r="E10" s="26">
         <f>SUM(E4:E9)</f>
-        <v>38650</v>
+        <v>32050</v>
       </c>
       <c r="G10" s="17">
         <f>SUM(G4:G9)</f>
@@ -1598,11 +1598,11 @@
       </c>
       <c r="H10" s="18">
         <f>SUM(H4:H9)</f>
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I10" s="19">
         <f>SUM(I4:I9)</f>
-        <v>18700</v>
+        <v>18600</v>
       </c>
       <c r="K10" s="17">
         <f>SUM(K4:K9)</f>
@@ -1610,23 +1610,23 @@
       </c>
       <c r="L10" s="18">
         <f>SUM(L4:L9)</f>
-        <v>2950</v>
+        <v>3150</v>
       </c>
       <c r="M10" s="19">
         <f>SUM(M4:M9)</f>
-        <v>12050</v>
+        <v>11850</v>
       </c>
       <c r="O10" s="24">
         <f>SUM(O4:O9)</f>
-        <v>8000</v>
+        <v>7900</v>
       </c>
       <c r="P10" s="25">
         <f>SUM(P4:P9)</f>
-        <v>100</v>
+        <v>6300</v>
       </c>
       <c r="Q10" s="26">
         <f>SUM(Q4:Q9)</f>
-        <v>7900</v>
+        <v>1600</v>
       </c>
     </row>
   </sheetData>
@@ -1645,8 +1645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AF66"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="R28" sqref="R28"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2561,7 +2561,7 @@
       <c r="D23" s="51"/>
       <c r="E23" s="51"/>
       <c r="F23" s="51"/>
-      <c r="G23" s="107"/>
+      <c r="G23" s="104"/>
       <c r="H23" s="51"/>
       <c r="I23" s="51"/>
       <c r="J23" s="51"/>
@@ -3137,7 +3137,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" s="51"/>
       <c r="E38" s="94"/>
@@ -3373,7 +3373,7 @@
       </c>
       <c r="C44" s="95">
         <f>SUM(C38:C43)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" s="96"/>
       <c r="E44" s="96"/>
@@ -3724,7 +3724,7 @@
       </c>
       <c r="C53" s="86">
         <f>SUM(C26,C36,C44,C52,C10,C20)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" s="43"/>
       <c r="E53" s="43"/>
@@ -3763,7 +3763,7 @@
       </c>
       <c r="C54" s="63">
         <f>C53*100</f>
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="D54" s="43"/>
       <c r="E54" s="43"/>
@@ -4138,7 +4138,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4233,7 +4233,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G3" s="66">
         <v>0</v>
@@ -4383,7 +4383,7 @@
       </c>
       <c r="B9" s="72">
         <f t="shared" si="0"/>
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="C9" s="71" t="s">
         <v>12</v>
@@ -4391,7 +4391,9 @@
       <c r="D9" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="73"/>
+      <c r="E9" s="68" t="s">
+        <v>12</v>
+      </c>
       <c r="F9" s="73"/>
       <c r="G9" s="73"/>
       <c r="H9" s="74"/>
@@ -4406,7 +4408,7 @@
       </c>
       <c r="B10" s="64">
         <f>SUM(B4:B9)</f>
-        <v>29.5</v>
+        <v>31.5</v>
       </c>
       <c r="C10" s="64">
         <f>COUNTIF(C4:C9,"*ü*") * C3</f>
@@ -4418,7 +4420,7 @@
       </c>
       <c r="E10" s="64">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F10" s="64">
         <f t="shared" si="1"/>
@@ -4468,7 +4470,7 @@
   <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X19" sqref="X19"/>
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4548,7 +4550,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="93"/>
       <c r="F2" s="93"/>
@@ -4575,7 +4577,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="52">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E3" s="51"/>
       <c r="F3" s="51"/>
@@ -4596,13 +4598,13 @@
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="32"/>
       <c r="B4" s="31" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C4" s="51">
         <v>4</v>
       </c>
       <c r="D4" s="52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E4" s="51"/>
       <c r="F4" s="51"/>
@@ -4626,7 +4628,7 @@
         <v>45</v>
       </c>
       <c r="C5" s="51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="52">
         <v>1</v>
@@ -4656,7 +4658,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="52">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E6" s="51"/>
       <c r="F6" s="51"/>
@@ -4681,11 +4683,11 @@
       </c>
       <c r="C7" s="37">
         <f>SUM(C2:C6)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="38">
         <f>SUM(D2:D6)</f>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E7" s="51"/>
       <c r="F7" s="51"/>
@@ -4714,7 +4716,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="93"/>
       <c r="F8" s="93"/>
@@ -4741,7 +4743,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="52">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E9" s="51"/>
       <c r="F9" s="51"/>
@@ -4768,7 +4770,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E10" s="51"/>
       <c r="F10" s="51"/>
@@ -4795,7 +4797,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="52">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E11" s="51"/>
       <c r="F11" s="51"/>
@@ -4824,7 +4826,7 @@
       </c>
       <c r="D12" s="38">
         <f>SUM(D8:D11)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E12" s="51"/>
       <c r="F12" s="51"/>
@@ -4853,7 +4855,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="93"/>
       <c r="F13" s="93"/>
@@ -4880,7 +4882,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E14" s="51"/>
       <c r="F14" s="51"/>
@@ -4901,13 +4903,13 @@
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="31" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C15" s="51">
         <v>4</v>
       </c>
       <c r="D15" s="52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E15" s="51"/>
       <c r="F15" s="51"/>
@@ -4934,7 +4936,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="52">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E16" s="51"/>
       <c r="F16" s="51"/>
@@ -4963,7 +4965,7 @@
       </c>
       <c r="D17" s="38">
         <f>SUM(D13:D16)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E17" s="51"/>
       <c r="F17" s="51"/>
@@ -4992,7 +4994,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="93"/>
       <c r="F18" s="93"/>
@@ -5019,7 +5021,7 @@
         <v>5</v>
       </c>
       <c r="D19" s="52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E19" s="51"/>
       <c r="F19" s="51"/>
@@ -5040,13 +5042,13 @@
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="32"/>
       <c r="B20" s="31" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C20" s="51">
         <v>4</v>
       </c>
       <c r="D20" s="52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E20" s="51"/>
       <c r="F20" s="51"/>
@@ -5073,7 +5075,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="52">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E21" s="51"/>
       <c r="F21" s="51"/>
@@ -5102,7 +5104,7 @@
       </c>
       <c r="D22" s="38">
         <f>SUM(D18:D21)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E22" s="51"/>
       <c r="F22" s="51"/>
@@ -5131,7 +5133,7 @@
         <v>2</v>
       </c>
       <c r="D23" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="93"/>
       <c r="F23" s="93"/>
@@ -5158,7 +5160,7 @@
         <v>5</v>
       </c>
       <c r="D24" s="52">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E24" s="51"/>
       <c r="F24" s="51"/>
@@ -5179,13 +5181,13 @@
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="31" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C25" s="51">
         <v>4</v>
       </c>
       <c r="D25" s="52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E25" s="51"/>
       <c r="F25" s="51"/>
@@ -5212,7 +5214,7 @@
         <v>2</v>
       </c>
       <c r="D26" s="52">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E26" s="51"/>
       <c r="F26" s="51"/>
@@ -5241,7 +5243,7 @@
       </c>
       <c r="D27" s="38">
         <f>SUM(D23:D26)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E27" s="51"/>
       <c r="F27" s="51"/>
@@ -5270,7 +5272,7 @@
         <v>2</v>
       </c>
       <c r="D28" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="93"/>
       <c r="F28" s="93"/>
@@ -5297,7 +5299,7 @@
         <v>5</v>
       </c>
       <c r="D29" s="52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E29" s="51"/>
       <c r="F29" s="51"/>
@@ -5318,7 +5320,7 @@
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="32"/>
       <c r="B30" s="31" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C30" s="51">
         <v>4</v>
@@ -5380,7 +5382,7 @@
       </c>
       <c r="D32" s="33">
         <f>SUM(D28:D31)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E32" s="51"/>
       <c r="F32" s="51"/>
@@ -5405,11 +5407,11 @@
       </c>
       <c r="C33" s="78">
         <f>SUM(C7,C12,C17,C22,C27,C32)</f>
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D33" s="79">
         <f>SUM(D7,D12,D17,D22,D27,D32)</f>
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="E33" s="96"/>
       <c r="F33" s="96"/>

--- a/Team_Gantt_Chart.xlsx
+++ b/Team_Gantt_Chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Brandon Foss\Documents\GitHub\6_Angry_Devs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2576E9-DA27-4702-B6D7-6FD14B32116D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08871F43-CEB5-4FF5-B76F-AE3281895761}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12030" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management Summary" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="78">
   <si>
     <t>testing</t>
   </si>
@@ -140,12 +140,6 @@
     <t>menu design</t>
   </si>
   <si>
-    <t>user interface</t>
-  </si>
-  <si>
-    <t>track health / progress</t>
-  </si>
-  <si>
     <t>placeholder</t>
   </si>
   <si>
@@ -191,9 +185,6 @@
     <t>create unity project</t>
   </si>
   <si>
-    <t>pickup items</t>
-  </si>
-  <si>
     <t>User Customizable Input</t>
   </si>
   <si>
@@ -264,6 +255,18 @@
   </si>
   <si>
     <t>Writing RFP - 2.0, 4.0, 7.0, 10.0</t>
+  </si>
+  <si>
+    <t>user interface setup</t>
+  </si>
+  <si>
+    <t>Finalized RFP and Presentation</t>
+  </si>
+  <si>
+    <t>track health changes</t>
+  </si>
+  <si>
+    <t>track time changes</t>
   </si>
 </sst>
 </file>
@@ -1170,7 +1173,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
@@ -1262,15 +1265,15 @@
       </c>
       <c r="C4" s="20">
         <f>(G4+K4 +O4)</f>
-        <v>6600</v>
+        <v>6500</v>
       </c>
       <c r="D4" s="21">
         <f t="shared" ref="D4:D7" si="0">(H4+L4 +P4)</f>
-        <v>2150</v>
+        <v>2350</v>
       </c>
       <c r="E4" s="22">
         <f>(C4-D4)</f>
-        <v>4450</v>
+        <v>4150</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="14">
@@ -1290,15 +1293,15 @@
       </c>
       <c r="L4" s="21">
         <f>Meetings!B4*100</f>
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="M4" s="22">
         <f>(K4-L4)</f>
-        <v>1950</v>
+        <v>1750</v>
       </c>
       <c r="O4" s="47">
         <f>(SA!C7)*100</f>
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="P4" s="48">
         <f>(SA!D7)*100</f>
@@ -1306,7 +1309,7 @@
       </c>
       <c r="Q4" s="49">
         <f>(O4-P4)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1315,15 +1318,15 @@
       </c>
       <c r="C5" s="14">
         <f t="shared" ref="C5:C7" si="1">(G5+K5 +O5)</f>
-        <v>12100</v>
+        <v>12000</v>
       </c>
       <c r="D5" s="15">
         <f t="shared" si="0"/>
-        <v>1750</v>
+        <v>1950</v>
       </c>
       <c r="E5" s="16">
         <f t="shared" ref="E5:E7" si="2">(C5-D5)</f>
-        <v>10350</v>
+        <v>10050</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="14">
@@ -1343,15 +1346,15 @@
       </c>
       <c r="L5" s="15">
         <f>Meetings!B5*100</f>
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="M5" s="16">
         <f t="shared" ref="M5:M7" si="4">(K5-L5)</f>
-        <v>1950</v>
+        <v>1750</v>
       </c>
       <c r="O5" s="44">
         <f>(SA!C12)*100</f>
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="P5" s="45">
         <f>(SA!D12)*100</f>
@@ -1359,7 +1362,7 @@
       </c>
       <c r="Q5" s="46">
         <f t="shared" ref="Q5:Q7" si="5">(O5-P5)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1368,15 +1371,15 @@
       </c>
       <c r="C6" s="14">
         <f t="shared" si="1"/>
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="D6" s="15">
         <f t="shared" si="0"/>
-        <v>1650</v>
+        <v>1850</v>
       </c>
       <c r="E6" s="16">
         <f t="shared" si="2"/>
-        <v>5150</v>
+        <v>4850</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="14">
@@ -1396,16 +1399,16 @@
       </c>
       <c r="L6" s="15">
         <f>Meetings!B6*100</f>
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="M6" s="16">
         <f t="shared" si="4"/>
-        <v>1950</v>
+        <v>1750</v>
       </c>
       <c r="N6" s="42"/>
       <c r="O6" s="45">
         <f>(SA!C17)*100</f>
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="P6" s="45">
         <f>(SA!D17)*100</f>
@@ -1413,7 +1416,7 @@
       </c>
       <c r="Q6" s="46">
         <f t="shared" si="5"/>
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1422,15 +1425,15 @@
       </c>
       <c r="C7" s="45">
         <f t="shared" si="1"/>
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="D7" s="45">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="E7" s="46">
         <f t="shared" si="2"/>
-        <v>4500</v>
+        <v>4200</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="14">
@@ -1450,16 +1453,16 @@
       </c>
       <c r="L7" s="15">
         <f>Meetings!B7*100</f>
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M7" s="16">
         <f t="shared" si="4"/>
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="N7" s="42"/>
       <c r="O7" s="56">
         <f>(SA!C22)*100</f>
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="P7" s="56">
         <f>(SA!D22)*100</f>
@@ -1467,7 +1470,7 @@
       </c>
       <c r="Q7" s="57">
         <f t="shared" si="5"/>
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1476,15 +1479,15 @@
       </c>
       <c r="C8" s="45">
         <f t="shared" ref="C8:C9" si="6">(G8+K8 +O8)</f>
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="D8" s="45">
         <f t="shared" ref="D8:D9" si="7">(H8+L8 +P8)</f>
-        <v>1850</v>
+        <v>2050</v>
       </c>
       <c r="E8" s="46">
         <f t="shared" ref="E8:E9" si="8">(C8-D8)</f>
-        <v>3550</v>
+        <v>3250</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="14">
@@ -1504,16 +1507,16 @@
       </c>
       <c r="L8" s="15">
         <f>Meetings!B8*100</f>
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="M8" s="16">
         <f t="shared" ref="M8:M9" si="10">(K8-L8)</f>
-        <v>1950</v>
+        <v>1750</v>
       </c>
       <c r="N8" s="42"/>
       <c r="O8" s="56">
         <f>(SA!C27)*100</f>
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="P8" s="56">
         <f>(SA!D27)*100</f>
@@ -1521,7 +1524,7 @@
       </c>
       <c r="Q8" s="57">
         <f t="shared" ref="Q8:Q9" si="11">(O8-P8)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1530,7 +1533,7 @@
       </c>
       <c r="C9" s="40">
         <f t="shared" si="6"/>
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="D9" s="41">
         <f t="shared" si="7"/>
@@ -1538,7 +1541,7 @@
       </c>
       <c r="E9" s="27">
         <f t="shared" si="8"/>
-        <v>4050</v>
+        <v>3950</v>
       </c>
       <c r="G9" s="14">
         <f>(Gantt!$B52)*100</f>
@@ -1565,7 +1568,7 @@
       </c>
       <c r="O9" s="54">
         <f>(SA!C32)*100</f>
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="P9" s="55">
         <f>(SA!D32)*100</f>
@@ -1573,7 +1576,7 @@
       </c>
       <c r="Q9" s="50">
         <f t="shared" si="11"/>
-        <v>900</v>
+        <v>800</v>
       </c>
     </row>
     <row r="10" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1582,15 +1585,15 @@
       </c>
       <c r="C10" s="24">
         <f>SUM(C4:C9)</f>
-        <v>41900</v>
+        <v>41300</v>
       </c>
       <c r="D10" s="25">
         <f>SUM(D4:D9)</f>
-        <v>9850</v>
+        <v>10850</v>
       </c>
       <c r="E10" s="26">
         <f>SUM(E4:E9)</f>
-        <v>32050</v>
+        <v>30450</v>
       </c>
       <c r="G10" s="17">
         <f>SUM(G4:G9)</f>
@@ -1610,15 +1613,15 @@
       </c>
       <c r="L10" s="18">
         <f>SUM(L4:L9)</f>
-        <v>3150</v>
+        <v>4150</v>
       </c>
       <c r="M10" s="19">
         <f>SUM(M4:M9)</f>
-        <v>11850</v>
+        <v>10850</v>
       </c>
       <c r="O10" s="24">
         <f>SUM(O4:O9)</f>
-        <v>7900</v>
+        <v>7300</v>
       </c>
       <c r="P10" s="25">
         <f>SUM(P4:P9)</f>
@@ -1626,7 +1629,7 @@
       </c>
       <c r="Q10" s="26">
         <f>SUM(Q4:Q9)</f>
-        <v>1600</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -1645,27 +1648,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AF66"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" t="s">
@@ -1687,7 +1690,7 @@
       <c r="B2" s="88"/>
       <c r="C2" s="88"/>
       <c r="D2" s="89" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E2" s="90">
         <v>3</v>
@@ -1773,7 +1776,7 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="92" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3" s="69">
         <v>3</v>
@@ -1812,10 +1815,10 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="92" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="B4" s="69">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="69">
         <v>0</v>
@@ -1851,10 +1854,10 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="92" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="B5" s="69">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C5" s="69">
         <v>0</v>
@@ -1864,9 +1867,9 @@
       <c r="F5" s="51"/>
       <c r="G5" s="51"/>
       <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="94"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
       <c r="L5" s="51"/>
       <c r="M5" s="51"/>
       <c r="N5" s="51"/>
@@ -1890,10 +1893,10 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="92" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="B6" s="69">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C6" s="69">
         <v>0</v>
@@ -1903,9 +1906,9 @@
       <c r="F6" s="51"/>
       <c r="G6" s="51"/>
       <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="59"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
       <c r="L6" s="94"/>
       <c r="M6" s="51"/>
       <c r="N6" s="51"/>
@@ -1929,7 +1932,7 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="92" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B7" s="69">
         <v>0</v>
@@ -1968,7 +1971,7 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="92" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B8" s="69">
         <v>0</v>
@@ -2122,7 +2125,7 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="92" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B12" s="69">
         <v>3</v>
@@ -2161,7 +2164,7 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="92" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B13" s="69">
         <v>5</v>
@@ -2200,7 +2203,7 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="92" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B14" s="69">
         <v>5</v>
@@ -2239,7 +2242,7 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="92" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B15" s="69">
         <v>30</v>
@@ -2278,7 +2281,7 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="92" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B16" s="69">
         <v>20</v>
@@ -2317,7 +2320,7 @@
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="92" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B17" s="69">
         <v>0</v>
@@ -2347,17 +2350,17 @@
       <c r="W17" s="51"/>
       <c r="X17" s="51"/>
       <c r="Y17" s="51"/>
-      <c r="Z17" s="94"/>
-      <c r="AA17" s="94"/>
-      <c r="AB17" s="94"/>
-      <c r="AC17" s="94"/>
-      <c r="AD17" s="94"/>
-      <c r="AE17" s="99"/>
+      <c r="Z17" s="51"/>
+      <c r="AA17" s="51"/>
+      <c r="AB17" s="51"/>
+      <c r="AC17" s="51"/>
+      <c r="AD17" s="51"/>
+      <c r="AE17" s="52"/>
       <c r="AF17" s="3"/>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="92" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B18" s="69">
         <v>0</v>
@@ -2426,12 +2429,12 @@
       <c r="W19" s="51"/>
       <c r="X19" s="51"/>
       <c r="Y19" s="51"/>
-      <c r="Z19" s="51"/>
-      <c r="AA19" s="51"/>
-      <c r="AB19" s="51"/>
-      <c r="AC19" s="51"/>
-      <c r="AD19" s="51"/>
-      <c r="AE19" s="52"/>
+      <c r="Z19" s="94"/>
+      <c r="AA19" s="94"/>
+      <c r="AB19" s="94"/>
+      <c r="AC19" s="94"/>
+      <c r="AD19" s="94"/>
+      <c r="AE19" s="99"/>
     </row>
     <row r="20" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="72" t="s">
@@ -2472,7 +2475,7 @@
       <c r="AB20" s="96"/>
       <c r="AC20" s="96"/>
       <c r="AD20" s="96"/>
-      <c r="AE20" s="97"/>
+      <c r="AE20" s="96"/>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="98" t="s">
@@ -2511,7 +2514,7 @@
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="92" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B22" s="69">
         <v>5</v>
@@ -2550,7 +2553,7 @@
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="92" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B23" s="69">
         <v>2</v>
@@ -2589,7 +2592,7 @@
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="92" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B24" s="69">
         <v>3</v>
@@ -2628,7 +2631,7 @@
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="92" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B25" s="69">
         <v>2</v>
@@ -2667,7 +2670,7 @@
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="92" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B26" s="69">
         <v>15</v>
@@ -2860,7 +2863,7 @@
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" s="92" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B31" s="69">
         <v>4</v>
@@ -2899,7 +2902,7 @@
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" s="92" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B32" s="69">
         <v>2</v>
@@ -2938,7 +2941,7 @@
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" s="92" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B33" s="69">
         <v>4</v>
@@ -2977,7 +2980,7 @@
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" s="92" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B34" s="69">
         <v>0</v>
@@ -3131,7 +3134,7 @@
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" s="92" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B38" s="69">
         <v>1</v>
@@ -3170,7 +3173,7 @@
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" s="92" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B39" s="69">
         <v>10</v>
@@ -3209,7 +3212,7 @@
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" s="92" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B40" s="69">
         <v>1</v>
@@ -3248,7 +3251,7 @@
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" s="92" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B41" s="69">
         <v>0</v>
@@ -3287,7 +3290,7 @@
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" s="92" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B42" s="69">
         <v>0</v>
@@ -3441,7 +3444,7 @@
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" s="92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B46" s="69">
         <v>2</v>
@@ -3519,7 +3522,7 @@
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48" s="92" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B48" s="69">
         <v>0</v>
@@ -3558,7 +3561,7 @@
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" s="92" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B49" s="69">
         <v>0</v>
@@ -3597,7 +3600,7 @@
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50" s="92" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B50" s="69">
         <v>0</v>
@@ -4138,12 +4141,13 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -4152,34 +4156,34 @@
         <v>9</v>
       </c>
       <c r="C1" s="80" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D1" s="80" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E1" s="80" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F1" s="80" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G1" s="80" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H1" s="80" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I1" s="80" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J1" s="80" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K1" s="80" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L1" s="81" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4191,31 +4195,31 @@
         <v>13</v>
       </c>
       <c r="D2" s="67" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E2" s="67" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F2" s="67" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="G2" s="67" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H2" s="67" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I2" s="67" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J2" s="67" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K2" s="67" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L2" s="82" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4260,7 +4264,7 @@
       </c>
       <c r="B4" s="70">
         <f t="shared" ref="B4:B9" si="0">SUMIF(C4:L4,A$12,C$3:Z$3)</f>
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="C4" s="68" t="s">
         <v>12</v>
@@ -4271,7 +4275,9 @@
       <c r="E4" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="68"/>
+      <c r="F4" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="G4" s="68"/>
       <c r="H4" s="69"/>
       <c r="I4" s="69"/>
@@ -4285,7 +4291,7 @@
       </c>
       <c r="B5" s="70">
         <f t="shared" si="0"/>
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="C5" s="68" t="s">
         <v>12</v>
@@ -4296,7 +4302,9 @@
       <c r="E5" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="68"/>
+      <c r="F5" s="68" t="s">
+        <v>12</v>
+      </c>
       <c r="G5" s="68"/>
       <c r="H5" s="69"/>
       <c r="I5" s="69"/>
@@ -4310,7 +4318,7 @@
       </c>
       <c r="B6" s="70">
         <f t="shared" si="0"/>
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="C6" s="68" t="s">
         <v>12</v>
@@ -4321,7 +4329,9 @@
       <c r="E6" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="68"/>
+      <c r="F6" s="68" t="s">
+        <v>12</v>
+      </c>
       <c r="G6" s="68"/>
       <c r="H6" s="69"/>
       <c r="I6" s="69"/>
@@ -4335,7 +4345,7 @@
       </c>
       <c r="B7" s="70">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C7" s="68"/>
       <c r="D7" s="68" t="s">
@@ -4344,7 +4354,9 @@
       <c r="E7" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="68"/>
+      <c r="F7" s="68" t="s">
+        <v>12</v>
+      </c>
       <c r="G7" s="68"/>
       <c r="H7" s="69"/>
       <c r="I7" s="69"/>
@@ -4358,7 +4370,7 @@
       </c>
       <c r="B8" s="70">
         <f t="shared" si="0"/>
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="C8" s="68" t="s">
         <v>12</v>
@@ -4369,7 +4381,9 @@
       <c r="E8" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="68"/>
+      <c r="F8" s="68" t="s">
+        <v>12</v>
+      </c>
       <c r="G8" s="68"/>
       <c r="H8" s="69"/>
       <c r="I8" s="69"/>
@@ -4391,10 +4405,10 @@
       <c r="D9" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="68" t="s">
+      <c r="E9" s="68"/>
+      <c r="F9" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="73"/>
       <c r="G9" s="73"/>
       <c r="H9" s="74"/>
       <c r="I9" s="74"/>
@@ -4404,11 +4418,11 @@
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="62" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B10" s="64">
         <f>SUM(B4:B9)</f>
-        <v>31.5</v>
+        <v>41.5</v>
       </c>
       <c r="C10" s="64">
         <f>COUNTIF(C4:C9,"*ü*") * C3</f>
@@ -4420,11 +4434,11 @@
       </c>
       <c r="E10" s="64">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F10" s="64">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G10" s="64">
         <f t="shared" si="1"/>
@@ -4470,7 +4484,7 @@
   <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4541,7 +4555,7 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="75" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" s="30" t="s">
         <v>22</v>
@@ -4598,10 +4612,10 @@
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="32"/>
       <c r="B4" s="31" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C4" s="51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" s="52">
         <v>3</v>
@@ -4625,7 +4639,7 @@
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="32"/>
       <c r="B5" s="53" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C5" s="51">
         <v>1</v>
@@ -4683,7 +4697,7 @@
       </c>
       <c r="C7" s="37">
         <f>SUM(C2:C6)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="38">
         <f>SUM(D2:D6)</f>
@@ -4764,10 +4778,10 @@
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="32"/>
       <c r="B10" s="31" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C10" s="51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" s="52">
         <v>3</v>
@@ -4822,7 +4836,7 @@
       </c>
       <c r="C12" s="37">
         <f>SUM(C8:C11)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" s="38">
         <f>SUM(D8:D11)</f>
@@ -4903,10 +4917,10 @@
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="31" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C15" s="51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" s="52">
         <v>3</v>
@@ -4961,7 +4975,7 @@
       </c>
       <c r="C17" s="37">
         <f>SUM(C13:C16)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" s="38">
         <f>SUM(D13:D16)</f>
@@ -5042,10 +5056,10 @@
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="32"/>
       <c r="B20" s="31" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C20" s="51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" s="52">
         <v>3</v>
@@ -5100,7 +5114,7 @@
       </c>
       <c r="C22" s="37">
         <f>SUM(C18:C21)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22" s="38">
         <f>SUM(D18:D21)</f>
@@ -5181,10 +5195,10 @@
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="31" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C25" s="51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" s="52">
         <v>3</v>
@@ -5239,7 +5253,7 @@
       </c>
       <c r="C27" s="37">
         <f>SUM(C23:C26)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D27" s="38">
         <f>SUM(D23:D26)</f>
@@ -5320,10 +5334,10 @@
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="32"/>
       <c r="B30" s="31" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C30" s="51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" s="52">
         <v>0</v>
@@ -5378,7 +5392,7 @@
       </c>
       <c r="C32" s="31">
         <f>SUM(C28:C31)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D32" s="33">
         <f>SUM(D28:D31)</f>
@@ -5407,7 +5421,7 @@
       </c>
       <c r="C33" s="78">
         <f>SUM(C7,C12,C17,C22,C27,C32)</f>
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D33" s="79">
         <f>SUM(D7,D12,D17,D22,D27,D32)</f>

--- a/Team_Gantt_Chart.xlsx
+++ b/Team_Gantt_Chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Brandon Foss\Documents\GitHub\6_Angry_Devs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08871F43-CEB5-4FF5-B76F-AE3281895761}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47EEDD6E-CEB5-436E-A5FA-54089FB0346A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12030" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management Summary" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="78">
   <si>
     <t>testing</t>
   </si>
@@ -1173,8 +1173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Q10"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1537,11 +1537,11 @@
       </c>
       <c r="D9" s="41">
         <f t="shared" si="7"/>
-        <v>950</v>
+        <v>750</v>
       </c>
       <c r="E9" s="27">
         <f t="shared" si="8"/>
-        <v>3950</v>
+        <v>4150</v>
       </c>
       <c r="G9" s="14">
         <f>(Gantt!$B52)*100</f>
@@ -1560,11 +1560,11 @@
       </c>
       <c r="L9" s="15">
         <f>Meetings!B9*100</f>
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="M9" s="16">
         <f t="shared" si="10"/>
-        <v>1950</v>
+        <v>2150</v>
       </c>
       <c r="O9" s="54">
         <f>(SA!C32)*100</f>
@@ -1589,11 +1589,11 @@
       </c>
       <c r="D10" s="25">
         <f>SUM(D4:D9)</f>
-        <v>10850</v>
+        <v>10650</v>
       </c>
       <c r="E10" s="26">
         <f>SUM(E4:E9)</f>
-        <v>30450</v>
+        <v>30650</v>
       </c>
       <c r="G10" s="17">
         <f>SUM(G4:G9)</f>
@@ -1613,11 +1613,11 @@
       </c>
       <c r="L10" s="18">
         <f>SUM(L4:L9)</f>
-        <v>4150</v>
+        <v>3950</v>
       </c>
       <c r="M10" s="19">
         <f>SUM(M4:M9)</f>
-        <v>10850</v>
+        <v>11050</v>
       </c>
       <c r="O10" s="24">
         <f>SUM(O4:O9)</f>
@@ -1648,7 +1648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AF66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -4141,7 +4141,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4397,7 +4397,7 @@
       </c>
       <c r="B9" s="72">
         <f t="shared" si="0"/>
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="C9" s="71" t="s">
         <v>12</v>
@@ -4406,9 +4406,7 @@
         <v>12</v>
       </c>
       <c r="E9" s="68"/>
-      <c r="F9" s="73" t="s">
-        <v>12</v>
-      </c>
+      <c r="F9" s="73"/>
       <c r="G9" s="73"/>
       <c r="H9" s="74"/>
       <c r="I9" s="74"/>
@@ -4422,7 +4420,7 @@
       </c>
       <c r="B10" s="64">
         <f>SUM(B4:B9)</f>
-        <v>41.5</v>
+        <v>39.5</v>
       </c>
       <c r="C10" s="64">
         <f>COUNTIF(C4:C9,"*ü*") * C3</f>
@@ -4438,7 +4436,7 @@
       </c>
       <c r="F10" s="64">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G10" s="64">
         <f t="shared" si="1"/>

--- a/Team_Gantt_Chart.xlsx
+++ b/Team_Gantt_Chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Brandon Foss\Documents\GitHub\6_Angry_Devs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47EEDD6E-CEB5-436E-A5FA-54089FB0346A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08209D89-A7A0-4441-8738-0606AD17FF64}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12030" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management Summary" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="79">
   <si>
     <t>testing</t>
   </si>
@@ -267,6 +267,9 @@
   </si>
   <si>
     <t>track time changes</t>
+  </si>
+  <si>
+    <t>Initial Demo Prep / Game start</t>
   </si>
 </sst>
 </file>
@@ -1173,7 +1176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
@@ -1269,11 +1272,11 @@
       </c>
       <c r="D4" s="21">
         <f t="shared" ref="D4:D7" si="0">(H4+L4 +P4)</f>
-        <v>2350</v>
+        <v>2550</v>
       </c>
       <c r="E4" s="22">
         <f>(C4-D4)</f>
-        <v>4150</v>
+        <v>3950</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="14">
@@ -1293,11 +1296,11 @@
       </c>
       <c r="L4" s="21">
         <f>Meetings!B4*100</f>
-        <v>750</v>
+        <v>950</v>
       </c>
       <c r="M4" s="22">
         <f>(K4-L4)</f>
-        <v>1750</v>
+        <v>1550</v>
       </c>
       <c r="O4" s="47">
         <f>(SA!C7)*100</f>
@@ -1322,11 +1325,11 @@
       </c>
       <c r="D5" s="15">
         <f t="shared" si="0"/>
-        <v>1950</v>
+        <v>2150</v>
       </c>
       <c r="E5" s="16">
         <f t="shared" ref="E5:E7" si="2">(C5-D5)</f>
-        <v>10050</v>
+        <v>9850</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="14">
@@ -1346,11 +1349,11 @@
       </c>
       <c r="L5" s="15">
         <f>Meetings!B5*100</f>
-        <v>750</v>
+        <v>950</v>
       </c>
       <c r="M5" s="16">
         <f t="shared" ref="M5:M7" si="4">(K5-L5)</f>
-        <v>1750</v>
+        <v>1550</v>
       </c>
       <c r="O5" s="44">
         <f>(SA!C12)*100</f>
@@ -1429,11 +1432,11 @@
       </c>
       <c r="D7" s="45">
         <f t="shared" si="0"/>
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="E7" s="46">
         <f t="shared" si="2"/>
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="14">
@@ -1453,11 +1456,11 @@
       </c>
       <c r="L7" s="15">
         <f>Meetings!B7*100</f>
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M7" s="16">
         <f t="shared" si="4"/>
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="N7" s="42"/>
       <c r="O7" s="56">
@@ -1589,11 +1592,11 @@
       </c>
       <c r="D10" s="25">
         <f>SUM(D4:D9)</f>
-        <v>10650</v>
+        <v>11250</v>
       </c>
       <c r="E10" s="26">
         <f>SUM(E4:E9)</f>
-        <v>30650</v>
+        <v>30050</v>
       </c>
       <c r="G10" s="17">
         <f>SUM(G4:G9)</f>
@@ -1613,11 +1616,11 @@
       </c>
       <c r="L10" s="18">
         <f>SUM(L4:L9)</f>
-        <v>3950</v>
+        <v>4550</v>
       </c>
       <c r="M10" s="19">
         <f>SUM(M4:M9)</f>
-        <v>11050</v>
+        <v>10450</v>
       </c>
       <c r="O10" s="24">
         <f>SUM(O4:O9)</f>
@@ -1648,7 +1651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AF66"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -4141,13 +4144,14 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="13.140625" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -4204,7 +4208,7 @@
         <v>75</v>
       </c>
       <c r="G2" s="67" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="H2" s="67" t="s">
         <v>39</v>
@@ -4240,7 +4244,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H3" s="66">
         <v>0</v>
@@ -4264,7 +4268,7 @@
       </c>
       <c r="B4" s="70">
         <f t="shared" ref="B4:B9" si="0">SUMIF(C4:L4,A$12,C$3:Z$3)</f>
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="C4" s="68" t="s">
         <v>12</v>
@@ -4278,7 +4282,9 @@
       <c r="F4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="68"/>
+      <c r="G4" s="68" t="s">
+        <v>12</v>
+      </c>
       <c r="H4" s="69"/>
       <c r="I4" s="69"/>
       <c r="J4" s="68"/>
@@ -4291,7 +4297,7 @@
       </c>
       <c r="B5" s="70">
         <f t="shared" si="0"/>
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="C5" s="68" t="s">
         <v>12</v>
@@ -4305,7 +4311,9 @@
       <c r="F5" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="68"/>
+      <c r="G5" s="68" t="s">
+        <v>12</v>
+      </c>
       <c r="H5" s="69"/>
       <c r="I5" s="69"/>
       <c r="J5" s="68"/>
@@ -4345,7 +4353,7 @@
       </c>
       <c r="B7" s="70">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" s="68"/>
       <c r="D7" s="68" t="s">
@@ -4357,7 +4365,9 @@
       <c r="F7" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="68"/>
+      <c r="G7" s="68" t="s">
+        <v>12</v>
+      </c>
       <c r="H7" s="69"/>
       <c r="I7" s="69"/>
       <c r="J7" s="68"/>
@@ -4420,7 +4430,7 @@
       </c>
       <c r="B10" s="64">
         <f>SUM(B4:B9)</f>
-        <v>39.5</v>
+        <v>45.5</v>
       </c>
       <c r="C10" s="64">
         <f>COUNTIF(C4:C9,"*ü*") * C3</f>
@@ -4440,7 +4450,7 @@
       </c>
       <c r="G10" s="64">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H10" s="64">
         <f t="shared" si="1"/>
